--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\computer\project\vue-npp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3F526-E4FA-4D43-A061-07FE650DF1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E59D163-7381-4286-8990-5178D9A5018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>insert</t>
   </si>
@@ -1038,7 +1039,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:U6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1068,22 +1069,22 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>3.9979999999999898E-4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F2">
-        <v>1.998E-4</v>
+        <v>4.0059999999999998E-4</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1091,7 +1092,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>5.9979999999999897E-4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1100,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.9439999999999902E-4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.9540000000000001E-4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.03E-4</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1114,22 +1115,22 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>6.0019999999999995E-4</v>
       </c>
       <c r="B4">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1994E-3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.0059999999999996E-4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8.0020000000000004E-4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9.9379999999999998E-4</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1140,22 +1141,22 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.998E-4</v>
+        <v>1.3998000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>1.9780000000000001E-4</v>
+        <v>1.7998000000000001E-3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.9919999999999904E-4</v>
       </c>
       <c r="D5">
-        <v>1.996E-4</v>
+        <v>4.0020000000000002E-4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.2008000000000002E-3</v>
       </c>
       <c r="F5">
-        <v>2.028E-4</v>
+        <v>1.1994E-3</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1169,22 +1170,22 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7.9980000000000003E-4</v>
+        <v>1.2052E-3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.6008000000000001E-3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.9908E-3</v>
       </c>
       <c r="D6">
-        <v>1E-3</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="E6">
-        <v>2.0000000000000001E-4</v>
+        <v>1.2038000000000001E-3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3.1944E-3</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1222,22 +1223,22 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.0040000000000005E-4</v>
+        <v>1.2106E-3</v>
       </c>
       <c r="B7">
-        <v>2.0019999999999999E-4</v>
+        <v>2.5885999999999999E-3</v>
       </c>
       <c r="C7">
-        <v>7.9980000000000003E-4</v>
+        <v>1.6002E-3</v>
       </c>
       <c r="D7">
-        <v>3.1992000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>2.0000000000000001E-4</v>
+        <v>5.9500000000000004E-4</v>
       </c>
       <c r="F7">
-        <v>8.0079999999999995E-4</v>
+        <v>3.2068000000000001E-3</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1247,42 +1248,42 @@
       </c>
       <c r="K7">
         <f>LN(A7*1000)-LN($J7)</f>
-        <v>-2.168553825327872</v>
+        <v>-1.7547940445798633</v>
       </c>
       <c r="L7">
         <f>LN(B7*1000)-LN($J7)</f>
-        <v>-3.5543485611563304</v>
+        <v>-0.99479296002911255</v>
       </c>
       <c r="M7">
         <f>LN(E7*1000)-LN($J7)</f>
-        <v>-3.5553480614894135</v>
+        <v>-2.4651040224918201</v>
       </c>
       <c r="N7">
         <f>LN(C7*1000)-LN($J7)</f>
-        <v>-2.1693037316247321</v>
+        <v>-1.4757815276214266</v>
       </c>
       <c r="O7">
         <f>LN(F7*1000)-LN($J7)</f>
-        <v>-2.1680542000364396</v>
+        <v>-0.78063659386865369</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
         <f>A7/$F7</f>
-        <v>0.99950049950049957</v>
+        <v>0.37751029063240615</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:U20" si="0">B7/$F7</f>
-        <v>0.25</v>
+        <f t="shared" ref="S7:T20" si="0">B7/$F7</f>
+        <v>0.8072221529250343</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0.99875124875124888</v>
+        <v>0.49900212049395032</v>
       </c>
       <c r="U7">
         <f>E7/$F7</f>
-        <v>0.24975024975024979</v>
+        <v>0.18554322065610579</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1290,22 +1291,22 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9.9540000000000002E-4</v>
+        <v>1.8017999999999899E-3</v>
       </c>
       <c r="B8">
-        <v>9.9879999999999999E-4</v>
+        <v>1.79739999999999E-3</v>
       </c>
       <c r="C8">
-        <v>4.0020000000000002E-4</v>
+        <v>2.8051999999999999E-3</v>
       </c>
       <c r="D8">
-        <v>1.3594399999999901E-2</v>
+        <v>3.9979999999999898E-4</v>
       </c>
       <c r="E8">
-        <v>1.4047999999999899E-3</v>
+        <v>1.1927999999999999E-3</v>
       </c>
       <c r="F8">
-        <v>1.4059999999999999E-3</v>
+        <v>6.803E-3</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -1315,42 +1316,42 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K20" si="1">LN(A8*1000)-LN($J8)</f>
-        <v>-2.084052154237519</v>
+        <v>-1.4906553764446389</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L20" si="2">LN(B8*1000)-LN($J8)</f>
-        <v>-2.0806422622563545</v>
+        <v>-1.4931003654377051</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M20" si="3">LN(E8*1000)-LN($J8)</f>
-        <v>-1.7395465977811277</v>
+        <v>-1.9031380572114442</v>
       </c>
       <c r="N8">
         <f t="shared" ref="N8:N20" si="4">LN(C8*1000)-LN($J8)</f>
-        <v>-2.9952323985123397</v>
+        <v>-1.0479667039992175</v>
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O20" si="5">LN(F8*1000)-LN($J8)</f>
-        <v>-1.7386927482913626</v>
+        <v>-0.16207785031691202</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8">
         <f t="shared" ref="R8:R20" si="6">A8/$F8</f>
-        <v>0.7079658605974396</v>
+        <v>0.26485374099661768</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0.71038406827880518</v>
+        <v>0.26420696751433043</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0.28463726884779522</v>
+        <v>0.41234749375275614</v>
       </c>
       <c r="U8">
         <f t="shared" ref="U8:U20" si="7">E8/$F8</f>
-        <v>0.9991465149359815</v>
+        <v>0.17533441128913713</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1358,22 +1359,22 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.2006E-3</v>
+        <v>1.1987999999999901E-3</v>
       </c>
       <c r="B9">
-        <v>2.2001999999999998E-3</v>
+        <v>2.20819999999999E-3</v>
       </c>
       <c r="C9">
-        <v>1.6067999999999901E-3</v>
+        <v>7.9980000000000003E-4</v>
       </c>
       <c r="D9">
-        <v>5.6592999999999997E-2</v>
+        <v>4.0020000000000002E-4</v>
       </c>
       <c r="E9">
-        <v>2.9935999999999999E-3</v>
+        <v>1.7994E-3</v>
       </c>
       <c r="F9">
-        <v>3.4053999999999998E-3</v>
+        <v>4.7959999999999904E-3</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1383,42 +1384,42 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-1.4084945268825444</v>
+        <v>-2.0159035208758569</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>-1.4086763120130215</v>
+        <v>-1.4050468733133246</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>-1.1007479007985315</v>
+        <v>-1.6097713013353383</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>-1.7229799538332358</v>
+        <v>-2.4206181599056387</v>
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
-        <v>-0.9718621703318131</v>
+        <v>-0.62944234017095368</v>
       </c>
       <c r="Q9">
         <v>9</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
-        <v>0.64620896223644808</v>
+        <v>0.24995829858215024</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0.64609150173254237</v>
+        <v>0.46042535446205057</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0.4718388441886387</v>
+        <v>0.1667639699749795</v>
       </c>
       <c r="U9">
         <f t="shared" si="7"/>
-        <v>0.87907441122922414</v>
+        <v>0.3751876563803177</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1426,22 +1427,22 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.5989999999999998E-3</v>
+        <v>2.6053999999999999E-3</v>
       </c>
       <c r="B10">
-        <v>5.2081999999999996E-3</v>
+        <v>2.2037999999999901E-3</v>
       </c>
       <c r="C10">
-        <v>3.3969999999999998E-3</v>
+        <v>1.5991999999999901E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.7983999999999996E-3</v>
+        <v>1.7949999999999999E-3</v>
       </c>
       <c r="F10">
-        <v>7.0054000000000002E-3</v>
+        <v>3.9935999999999999E-3</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1451,42 +1452,42 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>-0.77674620443625919</v>
+        <v>-1.3449988787127194</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>-0.65235078636737609</v>
+        <v>-1.512401949922511</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>-0.38589780261563589</v>
+        <v>-1.7175800710538036</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>-1.0796924038155991</v>
+        <v>-1.8330815887899987</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>-0.35590381276538663</v>
+        <v>-0.91789201324112923</v>
       </c>
       <c r="Q10">
         <v>10</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
-        <v>0.65649356210922993</v>
+        <v>0.65239383012820507</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>0.74345504896222903</v>
+        <v>0.55183293269230527</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0.48491163959231448</v>
+        <v>0.40044070512820268</v>
       </c>
       <c r="U10">
         <f t="shared" si="7"/>
-        <v>0.97045136608901694</v>
+        <v>0.44946915064102566</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1494,22 +1495,22 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.1201600000000001E-2</v>
+        <v>3.1938000000000001E-3</v>
       </c>
       <c r="B11">
-        <v>1.19878E-2</v>
+        <v>2.8059999999999899E-3</v>
       </c>
       <c r="C11">
-        <v>8.7980000000000003E-3</v>
+        <v>3.2014000000000001E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.5812199999999998E-2</v>
+        <v>3.6048E-3</v>
       </c>
       <c r="F11">
-        <v>1.5794800000000001E-2</v>
+        <v>3.7927999999999998E-3</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1519,42 +1520,42 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>1.816135244242556E-2</v>
+        <v>-1.236683842373741</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>8.5994193166860633E-2</v>
+        <v>-1.3661352911181051</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>0.36288652117737552</v>
+        <v>-1.1156289821025278</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>-0.22337084987184275</v>
+        <v>-1.2343070586679106</v>
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>0.36178549914062685</v>
+        <v>-1.0647907401925991</v>
       </c>
       <c r="Q11">
         <v>11</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.70919543140780505</v>
+        <v>0.84206918371651562</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>0.75897130701243443</v>
+        <v>0.73982282218940887</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>0.55701876566971409</v>
+        <v>0.84407298038388534</v>
       </c>
       <c r="U11">
         <f t="shared" si="7"/>
-        <v>1.0011016283840251</v>
+        <v>0.9504323982282219</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1562,22 +1563,22 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.4801999999999901E-2</v>
+        <v>4.0011999999999999E-3</v>
       </c>
       <c r="B12">
-        <v>2.7600199999999998E-2</v>
+        <v>4.0048000000000002E-3</v>
       </c>
       <c r="C12">
-        <v>1.9999800000000002E-2</v>
+        <v>4.5979999999999997E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.2597799999999899E-2</v>
+        <v>4.3985999999999999E-3</v>
       </c>
       <c r="F12">
-        <v>3.4800600000000001E-2</v>
+        <v>5.9974E-3</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1587,42 +1588,42 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.7260176452925764</v>
+        <v>-1.0983123336591119</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>0.83291636928566071</v>
+        <v>-1.0974130080926277</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>0.99933815164488937</v>
+        <v>-1.0036203413125415</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0.51081562371599043</v>
+        <v>-0.95928522344701062</v>
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>1.0647279782231078</v>
+        <v>-0.69358060780929986</v>
       </c>
       <c r="Q12">
         <v>12</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
-        <v>0.71268886168628987</v>
+        <v>0.66715576749924965</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>0.79309552134158601</v>
+        <v>0.66775602761196517</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>0.57469698798296587</v>
+        <v>0.76666555507386525</v>
       </c>
       <c r="U12">
         <f t="shared" si="7"/>
-        <v>0.93670224076596087</v>
+        <v>0.73341781438623399</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1630,22 +1631,22 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.1199599999999998E-2</v>
+        <v>8.4055999999999992E-3</v>
       </c>
       <c r="B13">
-        <v>5.7399800000000001E-2</v>
+        <v>8.9993999999999994E-3</v>
       </c>
       <c r="C13">
-        <v>4.3792999999999999E-2</v>
+        <v>1.0800199999999999E-2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.8607000000000001E-2</v>
+        <v>1.04008E-2</v>
       </c>
       <c r="F13">
-        <v>7.2193800000000002E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1655,42 +1656,42 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>1.3707823620534074</v>
+        <v>-0.43605120706910849</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>1.4850914615373561</v>
+        <v>-0.36779144901430527</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>1.6634452128808195</v>
+        <v>-0.22306663119571501</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>1.2145246297971117</v>
+        <v>-0.18538470498431003</v>
       </c>
       <c r="O13">
         <f t="shared" si="5"/>
-        <v>1.714404812173806</v>
+        <v>-0.14903557916048804</v>
       </c>
       <c r="Q13">
         <v>13</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>0.70919663461405269</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>0.7950793558449617</v>
+        <v>0.80351785714285706</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>0.60660333712867309</v>
+        <v>0.96430357142857137</v>
       </c>
       <c r="U13">
         <f t="shared" si="7"/>
-        <v>0.95031706323811738</v>
+        <v>0.9286428571428571</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1698,22 +1699,22 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.115401399999999</v>
+        <v>1.9384800000000001E-2</v>
       </c>
       <c r="B14">
-        <v>0.12880539999999999</v>
+        <v>2.1812399999999999E-2</v>
       </c>
       <c r="C14">
-        <v>0.103800799999999</v>
+        <v>2.40006E-2</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1514364</v>
+        <v>2.1800799999999999E-2</v>
       </c>
       <c r="F14">
-        <v>0.1553996</v>
+        <v>2.6394999999999998E-2</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -1723,42 +1724,42 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>2.1093591561009144</v>
+        <v>0.32543192419880107</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>2.2192454086419855</v>
+        <v>0.44342128580965801</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>2.3811084052124474</v>
+        <v>0.44288933675416375</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>2.0034163482159149</v>
+        <v>0.53902150042019237</v>
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>2.4069425343124018</v>
+        <v>0.63411726866032092</v>
       </c>
       <c r="Q14">
         <v>14</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
-        <v>0.7426106630905035</v>
+        <v>0.73441182042053421</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>0.82886571136605236</v>
+        <v>0.82638378480772878</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>0.66796053529094668</v>
+        <v>0.90928584959272596</v>
       </c>
       <c r="U14">
         <f t="shared" si="7"/>
-        <v>0.97449671685126604</v>
+        <v>0.8259443076340216</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -1766,22 +1767,22 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.2649994</v>
+        <v>4.5402999999999902E-2</v>
       </c>
       <c r="B15">
-        <v>0.28960540000000001</v>
+        <v>4.7001799999999899E-2</v>
       </c>
       <c r="C15">
-        <v>0.2342156</v>
+        <v>4.89944E-2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.33699959999999901</v>
+        <v>4.6007999999999903E-2</v>
       </c>
       <c r="F15">
-        <v>0.35620800000000002</v>
+        <v>5.5397599999999998E-2</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1791,42 +1792,42 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>2.8716773607305055</v>
+        <v>1.1075279810571037</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>2.9604691056443486</v>
+        <v>1.1421356977468418</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>3.1120315423058238</v>
+        <v>1.1207650933092408</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>2.7481918575783459</v>
+        <v>1.183655804763021</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>3.1674646287936778</v>
+        <v>1.3064860704129946</v>
       </c>
       <c r="Q15">
         <v>15</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
-        <v>0.74394567219152852</v>
+        <v>0.81958424191661561</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0.81302328976328431</v>
+        <v>0.84844469796525301</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0.65752481696087672</v>
+        <v>0.88441376521726578</v>
       </c>
       <c r="U15">
         <f t="shared" si="7"/>
-        <v>0.94607532677536432</v>
+        <v>0.83050529264805528</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -1834,22 +1835,22 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.63600379999999901</v>
+        <v>0.10600619999999999</v>
       </c>
       <c r="B16">
-        <v>0.68739419999999996</v>
+        <v>0.1073204</v>
       </c>
       <c r="C16">
-        <v>0.57110720000000004</v>
+        <v>0.1160004</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.76560159999999899</v>
+        <v>0.1095864</v>
       </c>
       <c r="F16">
-        <v>0.79799999999999904</v>
+        <v>0.1271958</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1859,42 +1860,42 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>3.6826158159252578</v>
+        <v>1.8909088607278171</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>3.7603192045494329</v>
+        <v>1.9032300304817737</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>3.8680732077609368</v>
+        <v>1.9241245569833914</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>3.574988210600734</v>
+        <v>1.9810049171365001</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>3.9095198752100262</v>
+        <v>2.0731389092531809</v>
       </c>
       <c r="Q16">
         <v>16</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>0.79699724310776909</v>
+        <v>0.83340959371299994</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>0.86139624060150477</v>
+        <v>0.84374169587360592</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>0.71567318295739435</v>
+        <v>0.91198294283301806</v>
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>0.9594005012531327</v>
+        <v>0.86155674951531425</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -1902,22 +1903,22 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.4885134</v>
+        <v>0.285386999999999</v>
       </c>
       <c r="B17">
-        <v>1.5667116000000001</v>
+        <v>0.29880020000000002</v>
       </c>
       <c r="C17">
-        <v>1.3544004000000001</v>
+        <v>0.30920199999999998</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.75370759999999</v>
+        <v>0.29521720000000001</v>
       </c>
       <c r="F17">
-        <v>1.7950018000000001</v>
+        <v>0.31820019999999999</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -1927,42 +1928,42 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>4.4723198387104546</v>
+        <v>2.8206328098439633</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>4.5235208354136001</v>
+        <v>2.8665617785462647</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>4.6362741103041092</v>
+        <v>2.8544980125553838</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>4.3779007820963933</v>
+        <v>2.9007814409414356</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>4.6595479596511753</v>
+        <v>2.9294674003827854</v>
       </c>
       <c r="Q17">
         <v>17</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
-        <v>0.82925454448012248</v>
+        <v>0.89687875746149437</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>0.87281895761887263</v>
+        <v>0.93903209363161944</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>0.75453985617173192</v>
+        <v>0.9717215765420637</v>
       </c>
       <c r="U17">
         <f t="shared" si="7"/>
-        <v>0.97699489772098835</v>
+        <v>0.92777188700698499</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -1970,22 +1971,22 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.3526012000000001</v>
+        <v>0.78562939999999903</v>
       </c>
       <c r="B18">
-        <v>3.5082648000000001</v>
+        <v>0.78829819999999995</v>
       </c>
       <c r="C18">
-        <v>3.0938045999999999</v>
+        <v>0.81819739999999996</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.8870966</v>
+        <v>0.77424959999999998</v>
       </c>
       <c r="F18">
-        <v>3.9116921999999898</v>
+        <v>0.82182239999999995</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1995,42 +1996,42 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>5.2271200432321061</v>
+        <v>3.7761134220690984</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>5.2725050773537037</v>
+        <v>3.7795046867724444</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>5.3750460247182561</v>
+        <v>3.7615225443280185</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>5.1467851167499523</v>
+        <v>3.8167318698869224</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>5.3813535891814341</v>
+        <v>3.821152555421877</v>
       </c>
       <c r="Q18">
         <v>18</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
-        <v>0.85707183198105641</v>
+        <v>0.95596007117839465</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>0.8968662718401027</v>
+        <v>0.9592074881385565</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>0.79091207636429262</v>
+        <v>0.99558907131273133</v>
       </c>
       <c r="U18">
         <f t="shared" si="7"/>
-        <v>0.99371228646262355</v>
+        <v>0.94211304048173916</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2038,22 +2039,22 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.528206</v>
+        <v>1.7992044</v>
       </c>
       <c r="B19">
-        <v>7.9144965999999997</v>
+        <v>1.8028329999999999</v>
       </c>
       <c r="C19">
-        <v>6.9605940000000004</v>
+        <v>1.9130612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.6489986000000005</v>
+        <v>1.92900339999999</v>
       </c>
       <c r="F19">
-        <v>8.7372055999999994</v>
+        <v>2.0290545999999998</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -2063,42 +2064,42 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>5.9819730662302195</v>
+        <v>4.5506608670070223</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>6.0320123903680045</v>
+        <v>4.5526756163416291</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>6.1207598452716336</v>
+        <v>4.620319796309011</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>5.9035811153479489</v>
+        <v>4.6120209813982651</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>6.1309067129596198</v>
+        <v>4.6708862701050986</v>
       </c>
       <c r="Q19">
         <v>19</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
-        <v>0.86162628472426017</v>
+        <v>0.88672054463196814</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>0.90583842962331118</v>
+        <v>0.88850886516311589</v>
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>0.79666134902445251</v>
+        <v>0.94283377095914533</v>
       </c>
       <c r="U19">
         <f t="shared" si="7"/>
-        <v>0.98990443809631778</v>
+        <v>0.95069073055007502</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2106,22 +2107,22 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16.413910600000001</v>
+        <v>4.638242</v>
       </c>
       <c r="B20">
-        <v>17.219904400000001</v>
+        <v>4.3865293999999997</v>
       </c>
       <c r="C20">
-        <v>15.3238962</v>
+        <v>4.6558757999999996</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.509578999999999</v>
+        <v>4.3893085999999997</v>
       </c>
       <c r="F20">
-        <v>18.880649999999999</v>
+        <v>4.8777032</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -2131,42 +2132,42 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>6.7101521880508326</v>
+        <v>5.4463584205630653</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>6.7580889527282331</v>
+        <v>5.3905613503742966</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>6.8303113872924399</v>
+        <v>5.3911947258064572</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>6.6414364585552761</v>
+        <v>5.4501530402437606</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>6.8501605935189733</v>
+        <v>5.4966974587623216</v>
       </c>
       <c r="Q20">
         <v>20</v>
       </c>
       <c r="R20">
         <f t="shared" si="6"/>
-        <v>0.86935092806656555</v>
+        <v>0.95090697605381158</v>
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
-        <v>0.91203980795152717</v>
+        <v>0.89930223716768987</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>0.81161910209659094</v>
+        <v>0.95452216116798572</v>
       </c>
       <c r="U20">
         <f t="shared" si="7"/>
-        <v>0.98034649230826265</v>
+        <v>0.89987201353292667</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -2177,4 +2178,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6A4D3F-884D-4862-BD06-D9E22F390263}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.998E-4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.998E-4</v>
+      </c>
+      <c r="B5">
+        <v>1.9780000000000001E-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.996E-4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.028E-4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.9980000000000003E-4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.0040000000000005E-4</v>
+      </c>
+      <c r="B7">
+        <v>2.0019999999999999E-4</v>
+      </c>
+      <c r="C7">
+        <v>7.9980000000000003E-4</v>
+      </c>
+      <c r="D7">
+        <v>3.1992000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7">
+        <v>8.0079999999999995E-4</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.9540000000000002E-4</v>
+      </c>
+      <c r="B8">
+        <v>9.9879999999999999E-4</v>
+      </c>
+      <c r="C8">
+        <v>4.0020000000000002E-4</v>
+      </c>
+      <c r="D8">
+        <v>1.3594399999999901E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.4047999999999899E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.4059999999999999E-3</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.2006E-3</v>
+      </c>
+      <c r="B9">
+        <v>2.2001999999999998E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.6067999999999901E-3</v>
+      </c>
+      <c r="D9">
+        <v>5.6592999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.9935999999999999E-3</v>
+      </c>
+      <c r="F9">
+        <v>3.4053999999999998E-3</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.5989999999999998E-3</v>
+      </c>
+      <c r="B10">
+        <v>5.2081999999999996E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.3969999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>6.7983999999999996E-3</v>
+      </c>
+      <c r="F10">
+        <v>7.0054000000000002E-3</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1201600000000001E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.19878E-2</v>
+      </c>
+      <c r="C11">
+        <v>8.7980000000000003E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.5812199999999998E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.5794800000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.4801999999999901E-2</v>
+      </c>
+      <c r="B12">
+        <v>2.7600199999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.9999800000000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3.2597799999999899E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.4800600000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.1199599999999998E-2</v>
+      </c>
+      <c r="B13">
+        <v>5.7399800000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.3792999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>6.8607000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>7.2193800000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.115401399999999</v>
+      </c>
+      <c r="B14">
+        <v>0.12880539999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.103800799999999</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.1514364</v>
+      </c>
+      <c r="F14">
+        <v>0.1553996</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.2649994</v>
+      </c>
+      <c r="B15">
+        <v>0.28960540000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.2342156</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.33699959999999901</v>
+      </c>
+      <c r="F15">
+        <v>0.35620800000000002</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.63600379999999901</v>
+      </c>
+      <c r="B16">
+        <v>0.68739419999999996</v>
+      </c>
+      <c r="C16">
+        <v>0.57110720000000004</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.76560159999999899</v>
+      </c>
+      <c r="F16">
+        <v>0.79799999999999904</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.4885134</v>
+      </c>
+      <c r="B17">
+        <v>1.5667116000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.3544004000000001</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.75370759999999</v>
+      </c>
+      <c r="F17">
+        <v>1.7950018000000001</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.3526012000000001</v>
+      </c>
+      <c r="B18">
+        <v>3.5082648000000001</v>
+      </c>
+      <c r="C18">
+        <v>3.0938045999999999</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.8870966</v>
+      </c>
+      <c r="F18">
+        <v>3.9116921999999898</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7.528206</v>
+      </c>
+      <c r="B19">
+        <v>7.9144965999999997</v>
+      </c>
+      <c r="C19">
+        <v>6.9605940000000004</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>8.6489986000000005</v>
+      </c>
+      <c r="F19">
+        <v>8.7372055999999994</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16.413910600000001</v>
+      </c>
+      <c r="B20">
+        <v>17.219904400000001</v>
+      </c>
+      <c r="C20">
+        <v>15.3238962</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>18.509578999999999</v>
+      </c>
+      <c r="F20">
+        <v>18.880649999999999</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\computer\project\vue-npp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E59D163-7381-4286-8990-5178D9A5018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691AC6A-CA2D-43F7-86EB-DC1C4A3D55AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4968" yWindow="1752" windowWidth="15048" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1036,63 +1036,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3.9979999999999898E-4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.0059999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.9979999999999897E-4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1101,39 +1101,39 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.9439999999999902E-4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.9540000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.03E-4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.0019999999999995E-4</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1.1994E-3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.0059999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.0020000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9.9379999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="s">
         <v>14</v>
@@ -1141,25 +1141,25 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.3998000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.7998000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.9919999999999904E-4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.0020000000000002E-4</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="E5">
-        <v>2.2008000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.1994E-3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -1170,25 +1170,25 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.2052E-3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1.6008000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C6">
-        <v>1.9908E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.0019999999999999E-4</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="E6">
-        <v>1.2038000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.1944E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -1223,67 +1223,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.2106E-3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2.5885999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C7">
-        <v>1.6002E-3</v>
+        <v>9.9799999999999997E-4</v>
       </c>
       <c r="D7">
-        <v>2.0000000000000001E-4</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="E7">
-        <v>5.9500000000000004E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F7">
-        <v>3.2068000000000001E-3</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>1E-3</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7">
-        <f>LN(A7*1000)-LN($J7)</f>
-        <v>-1.7547940445798633</v>
+        <f>LN(B7*1000)-LN($J7)</f>
+        <v>-1.9459101490553132</v>
       </c>
       <c r="L7">
-        <f>LN(B7*1000)-LN($J7)</f>
-        <v>-0.99479296002911255</v>
+        <f>LN(C7*1000)-LN($J7)</f>
+        <v>-1.9479121517259863</v>
       </c>
       <c r="M7">
-        <f>LN(E7*1000)-LN($J7)</f>
-        <v>-2.4651040224918201</v>
+        <f>LN(F7*1000)-LN($J7)</f>
+        <v>-1.9469106493888966</v>
       </c>
       <c r="N7">
-        <f>LN(C7*1000)-LN($J7)</f>
-        <v>-1.4757815276214266</v>
+        <f>LN(D7*1000)-LN($J7)</f>
+        <v>-1.9469106493888966</v>
       </c>
       <c r="O7">
-        <f>LN(F7*1000)-LN($J7)</f>
-        <v>-0.78063659386865369</v>
+        <f>LN(G7*1000)-LN($J7)</f>
+        <v>-1.9459101490553132</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <f>A7/$F7</f>
-        <v>0.37751029063240615</v>
+        <f>B7/$G7</f>
+        <v>1</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:T20" si="0">B7/$F7</f>
-        <v>0.8072221529250343</v>
+        <f>C7/$G7</f>
+        <v>0.998</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0.49900212049395032</v>
+        <f>D7/$G7</f>
+        <v>0.99900000000000011</v>
       </c>
       <c r="U7">
-        <f>E7/$F7</f>
-        <v>0.18554322065610579</v>
+        <f>F7/$G7</f>
+        <v>0.99900000000000011</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1291,67 +1291,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.8017999999999899E-3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1.79739999999999E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="C8">
-        <v>2.8051999999999999E-3</v>
+        <v>1.9620000000000002E-3</v>
       </c>
       <c r="D8">
-        <v>3.9979999999999898E-4</v>
+        <v>1.0020000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>1.1927999999999999E-3</v>
+        <v>1.3965999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>6.803E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>1.9989999999999999E-3</v>
       </c>
       <c r="J8">
         <v>8</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K20" si="1">LN(A8*1000)-LN($J8)</f>
-        <v>-1.4906553764446389</v>
+        <f>LN(B8*1000)-LN($J8)</f>
+        <v>-2.0784420413467521</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L20" si="2">LN(B8*1000)-LN($J8)</f>
-        <v>-1.4931003654377051</v>
+        <f>LN(C8*1000)-LN($J8)</f>
+        <v>-1.4054771805366642</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M20" si="3">LN(E8*1000)-LN($J8)</f>
-        <v>-1.9031380572114442</v>
+        <f>LN(F8*1000)-LN($J8)</f>
+        <v>-1.3857944860782392</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N20" si="4">LN(C8*1000)-LN($J8)</f>
-        <v>-1.0479667039992175</v>
+        <f>LN(D8*1000)-LN($J8)</f>
+        <v>-2.0774435390171626</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O20" si="5">LN(F8*1000)-LN($J8)</f>
-        <v>-0.16207785031691202</v>
+        <f>LN(G8*1000)-LN($J8)</f>
+        <v>-1.3867944861615729</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R20" si="6">A8/$F8</f>
-        <v>0.26485374099661768</v>
+        <f t="shared" ref="R8:R20" si="0">B8/$G8</f>
+        <v>0.5007503751875938</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0.26420696751433043</v>
+        <f>C8/$G8</f>
+        <v>0.98149074537268644</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0.41234749375275614</v>
+        <f>D8/$G8</f>
+        <v>0.50125062531265641</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U20" si="7">E8/$F8</f>
-        <v>0.17533441128913713</v>
+        <f t="shared" ref="U8:U20" si="1">F8/$G8</f>
+        <v>1.0010005002501252</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1359,67 +1359,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.1987999999999901E-3</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2.20819999999999E-3</v>
+        <v>3.999E-3</v>
       </c>
       <c r="C9">
-        <v>7.9980000000000003E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>4.0020000000000002E-4</v>
+        <v>2.9989999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>1.7994E-3</v>
+        <v>5.7999000000000002E-2</v>
       </c>
       <c r="F9">
-        <v>4.7959999999999904E-3</v>
+        <v>4.999E-3</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>4.999E-3</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>-2.0159035208758569</v>
+        <f>LN(B9*1000)-LN($J9)</f>
+        <v>-0.81118024747153816</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
-        <v>-1.4050468733133246</v>
+        <f>LN(C9*1000)-LN($J9)</f>
+        <v>-0.81093021621632899</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
-        <v>-1.6097713013353383</v>
+        <f>LN(F9*1000)-LN($J9)</f>
+        <v>-0.58798668490478634</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>-2.4206181599056387</v>
+        <f>LN(D9*1000)-LN($J9)</f>
+        <v>-1.0989456775693476</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
-        <v>-0.62944234017095368</v>
+        <f>LN(G9*1000)-LN($J9)</f>
+        <v>-0.58798668490478634</v>
       </c>
       <c r="Q9">
         <v>9</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0.24995829858215024</v>
+        <f t="shared" si="0"/>
+        <v>0.79995999199839962</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.46042535446205057</v>
+        <f>C9/$G9</f>
+        <v>0.80016003200640129</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0.1667639699749795</v>
+        <f>D9/$G9</f>
+        <v>0.59991998399679936</v>
       </c>
       <c r="U9">
-        <f t="shared" si="7"/>
-        <v>0.3751876563803177</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1427,67 +1427,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.6053999999999999E-3</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2.2037999999999901E-3</v>
+        <v>9.0010000000000003E-3</v>
       </c>
       <c r="C10">
-        <v>1.5991999999999901E-3</v>
+        <v>1.0002E-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10">
-        <v>1.7949999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3.9935999999999999E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>1.1998E-2</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>-1.3449988787127194</v>
+        <f>LN(B10*1000)-LN($J10)</f>
+        <v>-0.10524941071909755</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>-1.512401949922511</v>
+        <f>LN(C10*1000)-LN($J10)</f>
+        <v>1.9998000266596705E-4</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>-1.7175800710538036</v>
+        <f>LN(F10*1000)-LN($J10)</f>
+        <v>9.5310179804324768E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>-1.8330815887899987</v>
+        <f>LN(D10*1000)-LN($J10)</f>
+        <v>-0.22314355131421015</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
-        <v>-0.91789201324112923</v>
+        <f>LN(G10*1000)-LN($J10)</f>
+        <v>0.18215487623685522</v>
       </c>
       <c r="Q10">
         <v>10</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
-        <v>0.65239383012820507</v>
+        <f t="shared" si="0"/>
+        <v>0.75020836806134361</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0.55183293269230527</v>
+        <f>C10/$G10</f>
+        <v>0.83363893982330395</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
-        <v>0.40044070512820268</v>
+        <f>D10/$G10</f>
+        <v>0.66677779629938327</v>
       </c>
       <c r="U10">
-        <f t="shared" si="7"/>
-        <v>0.44946915064102566</v>
+        <f t="shared" si="1"/>
+        <v>0.91681946991165186</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1495,67 +1495,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3.1938000000000001E-3</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2.8059999999999899E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>3.2014000000000001E-3</v>
+        <v>2.2998999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.8034999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>3.6048E-3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3.7927999999999998E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2.6001E-2</v>
       </c>
       <c r="J11">
         <v>11</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>-1.236683842373741</v>
+        <f>LN(B11*1000)-LN($J11)</f>
+        <v>0.6931471805599454</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>-1.3661352911181051</v>
+        <f>LN(C11*1000)-LN($J11)</f>
+        <v>0.73755546392470261</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>-1.1156289821025278</v>
+        <f>LN(F11*1000)-LN($J11)</f>
+        <v>0.86020126522311147</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>-1.2343070586679106</v>
+        <f>LN(D11*1000)-LN($J11)</f>
+        <v>0.49441904155713168</v>
       </c>
       <c r="O11">
-        <f t="shared" si="5"/>
-        <v>-1.0647907401925991</v>
+        <f>LN(G11*1000)-LN($J11)</f>
+        <v>0.86023972602194698</v>
       </c>
       <c r="Q11">
         <v>11</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
-        <v>0.84206918371651562</v>
+        <f t="shared" si="0"/>
+        <v>0.84612130302680666</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0.73982282218940887</v>
+        <f>C11/$G11</f>
+        <v>0.88454290219606935</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
-        <v>0.84407298038388534</v>
+        <f>D11/$G11</f>
+        <v>0.69362716818583892</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
-        <v>0.9504323982282219</v>
+        <f t="shared" si="1"/>
+        <v>0.99996153994077142</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1563,67 +1563,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.0011999999999999E-3</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>4.0048000000000002E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C12">
-        <v>4.5979999999999997E-3</v>
+        <v>5.1019000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4.4989000000000001E-2</v>
       </c>
       <c r="E12">
-        <v>4.3985999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5.9974E-3</v>
+        <v>5.8997000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>5.7971000000000002E-2</v>
       </c>
       <c r="J12">
         <v>12</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>-1.0983123336591119</v>
+        <f>LN(B12*1000)-LN($J12)</f>
+        <v>1.4069136483226261</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>-1.0974130080926277</v>
+        <f>LN(C12*1000)-LN($J12)</f>
+        <v>1.4472914625767781</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>-1.0036203413125415</v>
+        <f>LN(F12*1000)-LN($J12)</f>
+        <v>1.5925799453673162</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>-0.95928522344701062</v>
+        <f>LN(D12*1000)-LN($J12)</f>
+        <v>1.3215113656564621</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
-        <v>-0.69358060780929986</v>
+        <f>LN(G12*1000)-LN($J12)</f>
+        <v>1.5750362357167371</v>
       </c>
       <c r="Q12">
         <v>12</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
-        <v>0.66715576749924965</v>
+        <f t="shared" si="0"/>
+        <v>0.84525021131255285</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0.66775602761196517</v>
+        <f>C12/$G12</f>
+        <v>0.88007797001949251</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
-        <v>0.76666555507386525</v>
+        <f>D12/$G12</f>
+        <v>0.77606044401511098</v>
       </c>
       <c r="U12">
-        <f t="shared" si="7"/>
-        <v>0.73341781438623399</v>
+        <f t="shared" si="1"/>
+        <v>1.0176985044246261</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1631,67 +1631,67 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8.4055999999999992E-3</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>8.9993999999999994E-3</v>
+        <v>0.111</v>
       </c>
       <c r="C13">
-        <v>1.0800199999999999E-2</v>
+        <v>0.118002</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9.7999000000000003E-2</v>
       </c>
       <c r="E13">
-        <v>1.04008E-2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.12E-2</v>
+        <v>0.127</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>0.13200100000000001</v>
       </c>
       <c r="J13">
         <v>13</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>-0.43605120706910849</v>
+        <f>LN(B13*1000)-LN($J13)</f>
+        <v>2.1445808438507972</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>-0.36779144901430527</v>
+        <f>LN(C13*1000)-LN($J13)</f>
+        <v>2.2057522160130349</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>-0.22306663119571501</v>
+        <f>LN(F13*1000)-LN($J13)</f>
+        <v>2.2792377289970545</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
-        <v>-0.18538470498431003</v>
+        <f>LN(D13*1000)-LN($J13)</f>
+        <v>2.0200079170753402</v>
       </c>
       <c r="O13">
-        <f t="shared" si="5"/>
-        <v>-0.14903557916048804</v>
+        <f>LN(G13*1000)-LN($J13)</f>
+        <v>2.3178601408537136</v>
       </c>
       <c r="Q13">
         <v>13</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
-        <v>0.75049999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.8409027204339361</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0.80351785714285706</v>
+        <f>C13/$G13</f>
+        <v>0.89394777312293083</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
-        <v>0.96430357142857137</v>
+        <f>D13/$G13</f>
+        <v>0.7424110423405883</v>
       </c>
       <c r="U13">
-        <f t="shared" si="7"/>
-        <v>0.9286428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.9621139233793683</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1699,67 +1699,67 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.9384800000000001E-2</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>2.1812399999999999E-2</v>
+        <v>0.232018</v>
       </c>
       <c r="C14">
-        <v>2.40006E-2</v>
+        <v>0.24499899999999999</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.219998</v>
       </c>
       <c r="E14">
-        <v>2.1800799999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2.6394999999999998E-2</v>
+        <v>0.26197199999999998</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>0.273003</v>
       </c>
       <c r="J14">
         <v>14</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.32543192419880107</v>
+        <f>LN(B14*1000)-LN($J14)</f>
+        <v>2.8077576252482941</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0.44342128580965801</v>
+        <f>LN(C14*1000)-LN($J14)</f>
+        <v>2.8621967992884856</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0.44288933675416375</v>
+        <f>LN(F14*1000)-LN($J14)</f>
+        <v>2.9291802982058006</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
-        <v>0.53902150042019237</v>
+        <f>LN(D14*1000)-LN($J14)</f>
+        <v>2.7545611257866898</v>
       </c>
       <c r="O14">
-        <f t="shared" si="5"/>
-        <v>0.63411726866032092</v>
+        <f>LN(G14*1000)-LN($J14)</f>
+        <v>2.9704254545203113</v>
       </c>
       <c r="Q14">
         <v>14</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
-        <v>0.73441182042053421</v>
+        <f t="shared" si="0"/>
+        <v>0.84987344461416181</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0.82638378480772878</v>
+        <f>C14/$G14</f>
+        <v>0.89742237264791958</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0.90928584959272596</v>
+        <f>D14/$G14</f>
+        <v>0.80584462441804672</v>
       </c>
       <c r="U14">
-        <f t="shared" si="7"/>
-        <v>0.8259443076340216</v>
+        <f t="shared" si="1"/>
+        <v>0.95959385061702618</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -1767,67 +1767,67 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.5402999999999902E-2</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4.7001799999999899E-2</v>
+        <v>0.54000099999999995</v>
       </c>
       <c r="C15">
-        <v>4.89944E-2</v>
+        <v>0.55599900000000002</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.496002</v>
       </c>
       <c r="E15">
-        <v>4.6007999999999903E-2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>5.5397599999999998E-2</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J15">
         <v>15</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>1.1075279810571037</v>
+        <f>LN(B15*1000)-LN($J15)</f>
+        <v>3.5835207903062467</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>1.1421356977468418</v>
+        <f>LN(C15*1000)-LN($J15)</f>
+        <v>3.6127162945856042</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>1.1207650933092408</v>
+        <f>LN(F15*1000)-LN($J15)</f>
+        <v>3.7004785899572883</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>1.183655804763021</v>
+        <f>LN(D15*1000)-LN($J15)</f>
+        <v>3.4985297578726526</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
-        <v>1.3064860704129946</v>
+        <f>LN(G15*1000)-LN($J15)</f>
+        <v>3.708682081410116</v>
       </c>
       <c r="Q15">
         <v>15</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
-        <v>0.81958424191661561</v>
+        <f t="shared" si="0"/>
+        <v>0.88235457516339866</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0.84844469796525301</v>
+        <f>C15/$G15</f>
+        <v>0.90849509803921569</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0.88441376521726578</v>
+        <f>D15/$G15</f>
+        <v>0.81046078431372548</v>
       </c>
       <c r="U15">
-        <f t="shared" si="7"/>
-        <v>0.83050529264805528</v>
+        <f t="shared" si="1"/>
+        <v>0.99183006535947715</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -1835,67 +1835,67 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.10600619999999999</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.1073204</v>
+        <v>1.245592</v>
       </c>
       <c r="C16">
-        <v>0.1160004</v>
+        <v>1.296063</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.1667860000000001</v>
       </c>
       <c r="E16">
-        <v>0.1095864</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1271958</v>
+        <v>1.382031</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>1.3850009999999999</v>
       </c>
       <c r="J16">
         <v>16</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>1.8909088607278171</v>
+        <f>LN(B16*1000)-LN($J16)</f>
+        <v>4.3547774756518045</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
-        <v>1.9032300304817737</v>
+        <f>LN(C16*1000)-LN($J16)</f>
+        <v>4.3944977646020682</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>1.9241245569833914</v>
+        <f>LN(F16*1000)-LN($J16)</f>
+        <v>4.4587207130953015</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
-        <v>1.9810049171365001</v>
+        <f>LN(D16*1000)-LN($J16)</f>
+        <v>4.2894195170530729</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
-        <v>2.0731389092531809</v>
+        <f>LN(G16*1000)-LN($J16)</f>
+        <v>4.4608674184030583</v>
       </c>
       <c r="Q16">
         <v>16</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
-        <v>0.83340959371299994</v>
+        <f t="shared" si="0"/>
+        <v>0.89934375498645858</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0.84374169587360592</v>
+        <f>C16/$G16</f>
+        <v>0.93578488390983117</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
-        <v>0.91198294283301806</v>
+        <f>D16/$G16</f>
+        <v>0.84244415708003106</v>
       </c>
       <c r="U16">
-        <f t="shared" si="7"/>
-        <v>0.86155674951531425</v>
+        <f t="shared" si="1"/>
+        <v>0.99785559721617534</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -1903,67 +1903,67 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.285386999999999</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.29880020000000002</v>
+        <v>2.8386589999999998</v>
       </c>
       <c r="C17">
-        <v>0.30920199999999998</v>
+        <v>2.9210750000000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.6678380000000002</v>
       </c>
       <c r="E17">
-        <v>0.29521720000000001</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.31820019999999999</v>
+        <v>3.125969</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>3.1209989999999999</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>2.8206328098439633</v>
+        <f>LN(B17*1000)-LN($J17)</f>
+        <v>5.1178736924869002</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>2.8665617785462647</v>
+        <f>LN(C17*1000)-LN($J17)</f>
+        <v>5.1464936341402074</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>2.8544980125553838</v>
+        <f>LN(F17*1000)-LN($J17)</f>
+        <v>5.214286250049418</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>2.9007814409414356</v>
+        <f>LN(D17*1000)-LN($J17)</f>
+        <v>5.0558103414956062</v>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
-        <v>2.9294674003827854</v>
+        <f>LN(G17*1000)-LN($J17)</f>
+        <v>5.2126950778043861</v>
       </c>
       <c r="Q17">
         <v>17</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
-        <v>0.89687875746149437</v>
+        <f t="shared" si="0"/>
+        <v>0.90953537633302672</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0.93903209363161944</v>
+        <f>C17/$G17</f>
+        <v>0.93594230565277348</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
-        <v>0.9717215765420637</v>
+        <f>D17/$G17</f>
+        <v>0.85480258084030158</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
-        <v>0.92777188700698499</v>
+        <f t="shared" si="1"/>
+        <v>1.0015924388312845</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -1971,67 +1971,67 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.78562939999999903</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.78829819999999995</v>
+        <v>5.9839950000000002</v>
       </c>
       <c r="C18">
-        <v>0.81819739999999996</v>
+        <v>6.20268</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5.5719989999999999</v>
       </c>
       <c r="E18">
-        <v>0.77424959999999998</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.82182239999999995</v>
+        <v>6.4691150000000004</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>6.7570750000000004</v>
       </c>
       <c r="J18">
         <v>18</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>3.7761134220690984</v>
+        <f>LN(B18*1000)-LN($J18)</f>
+        <v>5.8064719261963029</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
-        <v>3.7795046867724444</v>
+        <f>LN(C18*1000)-LN($J18)</f>
+        <v>5.8423649778049311</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>3.7615225443280185</v>
+        <f>LN(F18*1000)-LN($J18)</f>
+        <v>5.8844228350805503</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
-        <v>3.8167318698869224</v>
+        <f>LN(D18*1000)-LN($J18)</f>
+        <v>5.7351373975347437</v>
       </c>
       <c r="O18">
-        <f t="shared" si="5"/>
-        <v>3.821152555421877</v>
+        <f>LN(G18*1000)-LN($J18)</f>
+        <v>5.9279736251948245</v>
       </c>
       <c r="Q18">
         <v>18</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
-        <v>0.95596007117839465</v>
+        <f t="shared" si="0"/>
+        <v>0.88558954873225471</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0.9592074881385565</v>
+        <f>C18/$G18</f>
+        <v>0.91795340439465301</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0.99558907131273133</v>
+        <f>D18/$G18</f>
+        <v>0.82461701253870934</v>
       </c>
       <c r="U18">
-        <f t="shared" si="7"/>
-        <v>0.94211304048173916</v>
+        <f t="shared" si="1"/>
+        <v>0.95738392721702803</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2039,67 +2039,67 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.7992044</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>1.8028329999999999</v>
+        <v>13.056653000000001</v>
       </c>
       <c r="C19">
-        <v>1.9130612</v>
+        <v>13.326359</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>12.817758</v>
       </c>
       <c r="E19">
-        <v>1.92900339999999</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2.0290545999999998</v>
+        <v>14.085129999999999</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>14.146901</v>
       </c>
       <c r="J19">
         <v>19</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>4.5506608670070223</v>
+        <f>LN(B19*1000)-LN($J19)</f>
+        <v>6.5326141121053514</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>4.5526756163416291</v>
+        <f>LN(C19*1000)-LN($J19)</f>
+        <v>6.5530602534100719</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>4.620319796309011</v>
+        <f>LN(F19*1000)-LN($J19)</f>
+        <v>6.6084359307784002</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>4.6120209813982651</v>
+        <f>LN(D19*1000)-LN($J19)</f>
+        <v>6.5141478530190859</v>
       </c>
       <c r="O19">
-        <f t="shared" si="5"/>
-        <v>4.6708862701050986</v>
+        <f>LN(G19*1000)-LN($J19)</f>
+        <v>6.6128118893179124</v>
       </c>
       <c r="Q19">
         <v>19</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
-        <v>0.88672054463196814</v>
+        <f t="shared" si="0"/>
+        <v>0.92293379306181622</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0.88850886516311589</v>
+        <f>C19/$G19</f>
+        <v>0.94199846312630597</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0.94283377095914533</v>
+        <f>D19/$G19</f>
+        <v>0.90604705581809042</v>
       </c>
       <c r="U19">
-        <f t="shared" si="7"/>
-        <v>0.95069073055007502</v>
+        <f t="shared" si="1"/>
+        <v>0.99563360201644158</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2107,70 +2107,577 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.638242</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>4.3865293999999997</v>
+        <v>29.427060999999998</v>
       </c>
       <c r="C20">
-        <v>4.6558757999999996</v>
+        <v>30.147597000000001</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>28.404201</v>
       </c>
       <c r="E20">
-        <v>4.3893085999999997</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4.8777032</v>
+        <v>31.476548999999999</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>30.637004999999998</v>
       </c>
       <c r="J20">
         <v>20</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>5.4463584205630653</v>
+        <f>LN(B20*1000)-LN($J20)</f>
+        <v>7.2939376986025106</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
-        <v>5.3905613503742966</v>
+        <f>LN(C20*1000)-LN($J20)</f>
+        <v>7.3181282239324705</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>5.3911947258064572</v>
+        <f>LN(F20*1000)-LN($J20)</f>
+        <v>7.3612657978092404</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>5.4501530402437606</v>
+        <f>LN(D20*1000)-LN($J20)</f>
+        <v>7.2585600621910586</v>
       </c>
       <c r="O20">
-        <f t="shared" si="5"/>
-        <v>5.4966974587623216</v>
+        <f>LN(G20*1000)-LN($J20)</f>
+        <v>7.3342315974811108</v>
       </c>
       <c r="Q20">
         <v>20</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
-        <v>0.95090697605381158</v>
+        <f t="shared" si="0"/>
+        <v>0.96050710570435982</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0.89930223716768987</v>
+        <f>C20/$G20</f>
+        <v>0.98402559257995359</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
-        <v>0.95452216116798572</v>
+        <f>D20/$G20</f>
+        <v>0.927120682977987</v>
       </c>
       <c r="U20">
-        <f t="shared" si="7"/>
-        <v>0.89987201353292667</v>
+        <f t="shared" si="1"/>
+        <v>1.0274029396802984</v>
       </c>
       <c r="V20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f>B2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:G22" si="2">C2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:G40" si="3">B3*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.998</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>1.9620000000000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>1.002</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>13.965999999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>2.0010000000000003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>1.9989999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>57.999000000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>4.9989999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <f>B10*1000</f>
+        <v>9.0009999999999994</v>
+      </c>
+      <c r="L30">
+        <f>C10*1000</f>
+        <v>10.002000000000001</v>
+      </c>
+      <c r="M30">
+        <f>D10*1000</f>
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <f>F10*1000</f>
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <f>G10*1000</f>
+        <v>11.997999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <f>B11*1000</f>
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <f>C11*1000</f>
+        <v>22.998999999999999</v>
+      </c>
+      <c r="M31">
+        <f>D11*1000</f>
+        <v>18.035</v>
+      </c>
+      <c r="N31">
+        <f>F11*1000</f>
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <f>G11*1000</f>
+        <v>26.001000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <f>B12*1000</f>
+        <v>49</v>
+      </c>
+      <c r="L32">
+        <f>C12*1000</f>
+        <v>51.018999999999998</v>
+      </c>
+      <c r="M32">
+        <f>D12*1000</f>
+        <v>44.989000000000004</v>
+      </c>
+      <c r="N32">
+        <f>F12*1000</f>
+        <v>58.997</v>
+      </c>
+      <c r="O32">
+        <f>G12*1000</f>
+        <v>57.971000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <f>B13*1000</f>
+        <v>111</v>
+      </c>
+      <c r="L33">
+        <f>C13*1000</f>
+        <v>118.002</v>
+      </c>
+      <c r="M33">
+        <f>D13*1000</f>
+        <v>97.999000000000009</v>
+      </c>
+      <c r="N33">
+        <f>F13*1000</f>
+        <v>127</v>
+      </c>
+      <c r="O33">
+        <f>G13*1000</f>
+        <v>132.001</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <f>B14*1000</f>
+        <v>232.018</v>
+      </c>
+      <c r="L34">
+        <f>C14*1000</f>
+        <v>244.999</v>
+      </c>
+      <c r="M34">
+        <f>D14*1000</f>
+        <v>219.99799999999999</v>
+      </c>
+      <c r="N34">
+        <f>F14*1000</f>
+        <v>261.97199999999998</v>
+      </c>
+      <c r="O34">
+        <f>G14*1000</f>
+        <v>273.00299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <f>B15*1000</f>
+        <v>540.00099999999998</v>
+      </c>
+      <c r="L35">
+        <f>C15*1000</f>
+        <v>555.99900000000002</v>
+      </c>
+      <c r="M35">
+        <f>D15*1000</f>
+        <v>496.00200000000001</v>
+      </c>
+      <c r="N35">
+        <f>F15*1000</f>
+        <v>607</v>
+      </c>
+      <c r="O35">
+        <f>G15*1000</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <f>B16*1000</f>
+        <v>1245.5920000000001</v>
+      </c>
+      <c r="L36">
+        <f>C16*1000</f>
+        <v>1296.0629999999999</v>
+      </c>
+      <c r="M36">
+        <f>D16*1000</f>
+        <v>1166.7860000000001</v>
+      </c>
+      <c r="N36">
+        <f>F16*1000</f>
+        <v>1382.0309999999999</v>
+      </c>
+      <c r="O36">
+        <f>G16*1000</f>
+        <v>1385.001</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <f>B17*1000</f>
+        <v>2838.6589999999997</v>
+      </c>
+      <c r="L37">
+        <f>C17*1000</f>
+        <v>2921.0750000000003</v>
+      </c>
+      <c r="M37">
+        <f>D17*1000</f>
+        <v>2667.8380000000002</v>
+      </c>
+      <c r="N37">
+        <f>F17*1000</f>
+        <v>3125.9690000000001</v>
+      </c>
+      <c r="O37">
+        <f>G17*1000</f>
+        <v>3120.9989999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <f>B18*1000</f>
+        <v>5983.9949999999999</v>
+      </c>
+      <c r="L38">
+        <f>C18*1000</f>
+        <v>6202.68</v>
+      </c>
+      <c r="M38">
+        <f>D18*1000</f>
+        <v>5571.9989999999998</v>
+      </c>
+      <c r="N38">
+        <f>F18*1000</f>
+        <v>6469.1150000000007</v>
+      </c>
+      <c r="O38">
+        <f>G18*1000</f>
+        <v>6757.0750000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <f>B19*1000</f>
+        <v>13056.653</v>
+      </c>
+      <c r="L39">
+        <f>C19*1000</f>
+        <v>13326.359</v>
+      </c>
+      <c r="M39">
+        <f>D19*1000</f>
+        <v>12817.758</v>
+      </c>
+      <c r="N39">
+        <f>F19*1000</f>
+        <v>14085.13</v>
+      </c>
+      <c r="O39">
+        <f>G19*1000</f>
+        <v>14146.901</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <f>B20*1000</f>
+        <v>29427.060999999998</v>
+      </c>
+      <c r="L40">
+        <f>C20*1000</f>
+        <v>30147.597000000002</v>
+      </c>
+      <c r="M40">
+        <f>D20*1000</f>
+        <v>28404.201000000001</v>
+      </c>
+      <c r="N40">
+        <f>F20*1000</f>
+        <v>31476.548999999999</v>
+      </c>
+      <c r="O40">
+        <f>G20*1000</f>
+        <v>30637.004999999997</v>
       </c>
     </row>
   </sheetData>
